--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\Personal Development\rpa-developer-with-uipath-nanodegree\UpworkJobsScraper-REFTabular\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB4F62-5314-44B5-A4FF-A6E70EE562FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD34AACC-870F-4BB9-8E2D-96E2200482DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -165,13 +165,28 @@
     <t>jobsListFilePath</t>
   </si>
   <si>
-    <t>StatusFilePath</t>
-  </si>
-  <si>
     <t>Data\output\jobs_list.txt</t>
   </si>
   <si>
-    <t>Data\output\Status.xlsx</t>
+    <t>StorageBucketName</t>
+  </si>
+  <si>
+    <t>ExLogsFolderPath</t>
+  </si>
+  <si>
+    <t>Exceptions_Logs</t>
+  </si>
+  <si>
+    <t>Where to save exceptions logs - can be a full or a relative path.</t>
+  </si>
+  <si>
+    <t>Upwork</t>
+  </si>
+  <si>
+    <t>Data\output\all_transactions_status.xlsx</t>
+  </si>
+  <si>
+    <t>TransactionsStatusFilePath</t>
   </si>
 </sst>
 </file>
@@ -230,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -240,6 +255,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -558,7 +574,7 @@
   <dimension ref="A1:Z995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -641,19 +657,36 @@
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
         <v>49</v>
       </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1659,7 +1692,7 @@
   <dimension ref="A1:Z987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
